--- a/BT.API/wwwroot/Excel/employee_excel_down.xlsx
+++ b/BT.API/wwwroot/Excel/employee_excel_down.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>HeadImage</t>
   </si>
   <si>
-    <t>张缺缺</t>
+    <t>测试1</t>
   </si>
   <si>
     <t>admin213@qq.com</t>
@@ -40,20 +40,15 @@
     <t>https://www.zhangqueque.top:5001/UserImg/1_1_1.png</t>
   </si>
   <si>
-    <r>
-      <t>123</t>
-    </r>
+    <t>测试2</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>阿大撒</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>1231231</t>
     </r>
     <r>
@@ -75,6 +70,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>123123</t>
     </r>
     <r>
@@ -89,15 +89,24 @@
   <si>
     <t>请问</t>
   </si>
+  <si>
+    <t>测试43</t>
+  </si>
+  <si>
+    <t>456125@qq.com</t>
+  </si>
+  <si>
+    <t>你好</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -129,28 +138,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,6 +199,44 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,53 +258,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,30 +269,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -272,187 +281,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,15 +472,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -499,15 +499,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -519,17 +510,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,6 +529,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -563,16 +561,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,16 +590,16 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,122 +611,123 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1037,13 +1047,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="12.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="12.8888888888889"/>
@@ -1078,7 +1088,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
@@ -1089,12 +1099,27 @@
       </c>
       <c r="D3" s="5" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>123123</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://www.zhangqueque.top:5001/UserImg/1_1_1.png"/>
     <hyperlink ref="B2" r:id="rId2" display="admin213@qq.com" tooltip="mailto:admin213@qq.com"/>
+    <hyperlink ref="B4" r:id="rId3" display="456125@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
